--- a/teaching/traditional_assets/database/data/switzerland/switzerland_reinsurance.xlsx
+++ b/teaching/traditional_assets/database/data/switzerland/switzerland_reinsurance.xlsx
@@ -591,124 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.025</v>
-      </c>
-      <c r="E2">
-        <v>-0.385</v>
+        <v>0.0343</v>
       </c>
       <c r="F2">
-        <v>-0.00509</v>
+        <v>-0.00508</v>
       </c>
       <c r="G2">
-        <v>0.02775419732126014</v>
+        <v>0.03578012973711164</v>
       </c>
       <c r="H2">
-        <v>0.02775419732126014</v>
+        <v>0.03578012973711164</v>
       </c>
       <c r="I2">
-        <v>0.02347688262081439</v>
+        <v>-0.02383452282301649</v>
       </c>
       <c r="J2">
-        <v>0.02137133260997902</v>
+        <v>-0.02383452282301649</v>
       </c>
       <c r="K2">
-        <v>385</v>
+        <v>-1361</v>
       </c>
       <c r="L2">
-        <v>0.009078475759290701</v>
+        <v>-0.03097758051667236</v>
       </c>
       <c r="M2">
-        <v>3447</v>
+        <v>2486</v>
       </c>
       <c r="N2">
-        <v>0.1063006331163324</v>
+        <v>0.09462041456377933</v>
       </c>
       <c r="O2">
-        <v>8.953246753246754</v>
+        <v>-1.826598089639971</v>
       </c>
       <c r="P2">
-        <v>1659</v>
+        <v>1765</v>
       </c>
       <c r="Q2">
-        <v>0.05116122725268218</v>
+        <v>0.06717821066173392</v>
       </c>
       <c r="R2">
-        <v>4.30909090909091</v>
+        <v>-1.296840558412932</v>
       </c>
       <c r="S2">
-        <v>1788</v>
+        <v>721</v>
       </c>
       <c r="T2">
-        <v>0.5187119234116623</v>
+        <v>0.2900241351568785</v>
       </c>
       <c r="U2">
-        <v>5849</v>
+        <v>10103</v>
       </c>
       <c r="V2">
-        <v>0.1803749356244353</v>
+        <v>0.3845334064110469</v>
       </c>
       <c r="W2">
-        <v>0.01249959416902049</v>
+        <v>-0.04519042401301591</v>
       </c>
       <c r="X2">
-        <v>0.08358637420814007</v>
+        <v>0.09360143399501374</v>
       </c>
       <c r="Y2">
-        <v>-0.07108678003911958</v>
+        <v>-0.1387918580080297</v>
       </c>
       <c r="Z2">
-        <v>1.27708160246087</v>
+        <v>1.29602347956533</v>
       </c>
       <c r="AA2">
-        <v>0.02729293569627624</v>
+        <v>-0.03089010120286509</v>
       </c>
       <c r="AB2">
-        <v>0.06607358638148528</v>
+        <v>0.06836333534660596</v>
       </c>
       <c r="AC2">
-        <v>-0.03878065068520904</v>
+        <v>-0.09925343654947105</v>
       </c>
       <c r="AD2">
-        <v>13171</v>
+        <v>12621</v>
       </c>
       <c r="AE2">
-        <v>511.9618090825171</v>
+        <v>535.8488011461467</v>
       </c>
       <c r="AF2">
-        <v>13682.96180908252</v>
+        <v>13156.84880114615</v>
       </c>
       <c r="AG2">
-        <v>7833.961809082517</v>
+        <v>3053.848801146147</v>
       </c>
       <c r="AH2">
-        <v>0.2967469706531913</v>
+        <v>0.3336739990533285</v>
       </c>
       <c r="AI2">
-        <v>0.3008900121022131</v>
+        <v>0.3064375249597927</v>
       </c>
       <c r="AJ2">
-        <v>0.19458008241928</v>
+        <v>0.1041300812719534</v>
       </c>
       <c r="AK2">
-        <v>0.1976977075490676</v>
+        <v>0.09301482897422268</v>
       </c>
       <c r="AL2">
-        <v>566</v>
+        <v>623</v>
       </c>
       <c r="AM2">
-        <v>566</v>
+        <v>623</v>
       </c>
       <c r="AN2">
-        <v>11.37392055267703</v>
+        <v>-14.39110604332953</v>
       </c>
       <c r="AO2">
-        <v>1.787985865724382</v>
+        <v>-1.651685393258427</v>
       </c>
       <c r="AP2">
-        <v>6.765079282454677</v>
+        <v>-3.482153707122174</v>
       </c>
       <c r="AQ2">
-        <v>1.787985865724382</v>
+        <v>-1.651685393258427</v>
       </c>
     </row>
     <row r="3">
@@ -728,124 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.025</v>
-      </c>
-      <c r="E3">
-        <v>-0.385</v>
+        <v>0.0343</v>
       </c>
       <c r="F3">
-        <v>-0.00509</v>
+        <v>-0.00508</v>
       </c>
       <c r="G3">
-        <v>0.02775419732126014</v>
+        <v>0.03578012973711164</v>
       </c>
       <c r="H3">
-        <v>0.02775419732126014</v>
+        <v>0.03578012973711164</v>
       </c>
       <c r="I3">
-        <v>0.02347688262081439</v>
+        <v>-0.02383452282301649</v>
       </c>
       <c r="J3">
-        <v>0.02137133260997902</v>
+        <v>-0.02383452282301649</v>
       </c>
       <c r="K3">
-        <v>385</v>
+        <v>-1361</v>
       </c>
       <c r="L3">
-        <v>0.009078475759290701</v>
+        <v>-0.03097758051667236</v>
       </c>
       <c r="M3">
-        <v>3447</v>
+        <v>2486</v>
       </c>
       <c r="N3">
-        <v>0.1063006331163324</v>
+        <v>0.09462041456377933</v>
       </c>
       <c r="O3">
-        <v>8.953246753246754</v>
+        <v>-1.826598089639971</v>
       </c>
       <c r="P3">
-        <v>1659</v>
+        <v>1765</v>
       </c>
       <c r="Q3">
-        <v>0.05116122725268218</v>
+        <v>0.06717821066173392</v>
       </c>
       <c r="R3">
-        <v>4.30909090909091</v>
+        <v>-1.296840558412932</v>
       </c>
       <c r="S3">
-        <v>1788</v>
+        <v>721</v>
       </c>
       <c r="T3">
-        <v>0.5187119234116623</v>
+        <v>0.2900241351568785</v>
       </c>
       <c r="U3">
-        <v>5849</v>
+        <v>10103</v>
       </c>
       <c r="V3">
-        <v>0.1803749356244353</v>
+        <v>0.3845334064110469</v>
       </c>
       <c r="W3">
-        <v>0.01249959416902049</v>
+        <v>-0.04519042401301591</v>
       </c>
       <c r="X3">
-        <v>0.08358637420814007</v>
+        <v>0.09360143399501374</v>
       </c>
       <c r="Y3">
-        <v>-0.07108678003911958</v>
+        <v>-0.1387918580080297</v>
       </c>
       <c r="Z3">
-        <v>1.27708160246087</v>
+        <v>1.29602347956533</v>
       </c>
       <c r="AA3">
-        <v>0.02729293569627624</v>
+        <v>-0.03089010120286509</v>
       </c>
       <c r="AB3">
-        <v>0.06607358638148528</v>
+        <v>0.06836333534660596</v>
       </c>
       <c r="AC3">
-        <v>-0.03878065068520904</v>
+        <v>-0.09925343654947105</v>
       </c>
       <c r="AD3">
-        <v>13171</v>
+        <v>12621</v>
       </c>
       <c r="AE3">
-        <v>511.9618090825171</v>
+        <v>535.8488011461467</v>
       </c>
       <c r="AF3">
-        <v>13682.96180908252</v>
+        <v>13156.84880114615</v>
       </c>
       <c r="AG3">
-        <v>7833.961809082517</v>
+        <v>3053.848801146147</v>
       </c>
       <c r="AH3">
-        <v>0.2967469706531913</v>
+        <v>0.3336739990533285</v>
       </c>
       <c r="AI3">
-        <v>0.3008900121022131</v>
+        <v>0.3064375249597927</v>
       </c>
       <c r="AJ3">
-        <v>0.19458008241928</v>
+        <v>0.1041300812719534</v>
       </c>
       <c r="AK3">
-        <v>0.1976977075490676</v>
+        <v>0.09301482897422268</v>
       </c>
       <c r="AL3">
-        <v>566</v>
+        <v>623</v>
       </c>
       <c r="AM3">
-        <v>566</v>
+        <v>623</v>
       </c>
       <c r="AN3">
-        <v>11.37392055267703</v>
+        <v>-14.39110604332953</v>
       </c>
       <c r="AO3">
-        <v>1.787985865724382</v>
+        <v>-1.651685393258427</v>
       </c>
       <c r="AP3">
-        <v>6.765079282454677</v>
+        <v>-3.482153707122174</v>
       </c>
       <c r="AQ3">
-        <v>1.787985865724382</v>
+        <v>-1.651685393258427</v>
       </c>
     </row>
   </sheetData>
